--- a/case/c1/c1.xlsx
+++ b/case/c1/c1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="28260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="apis" sheetId="1" r:id="rId1"/>
@@ -162,15 +162,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18605106755</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/case/c1/c1.xlsx
+++ b/case/c1/c1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="28260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="apis" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001</t>
+    <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +769,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
